--- a/results/LR/375Hz_3classes/res_hyperopt.xlsx
+++ b/results/LR/375Hz_3classes/res_hyperopt.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'C': 6.741612291170819e-05, 'l1_ratio': 0.2218264629783979, 'tol': 0.0005232193102413828}</t>
+          <t>{'C': 6.059729182523328e-05, 'tol': 0.06712407930237235}</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'C': 5.011511063688764e-05, 'l1_ratio': 0.3736627955881482, 'tol': 2.2349216618983793e-05}</t>
+          <t>{'C': 6.810135372593185e-05, 'tol': 0.01035824919650742}</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'C': 0.2175258614043135, 'l1_ratio': 0.5027929068821659, 'tol': 6.244318387039618e-06}</t>
+          <t>{'C': 0.0009299946225231531, 'tol': 2.9552211446186904e-06}</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'C': 0.819695570253902, 'l1_ratio': 0.19904603634477624, 'tol': 0.043547483706740525}</t>
+          <t>{'C': 0.7300975686163445, 'tol': 7.043333283996999e-06}</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'C': 4.5448758273814076e-05, 'l1_ratio': 0.9821868782839938, 'tol': 0.023725146415371472}</t>
+          <t>{'C': 4.722492977020661e-05, 'tol': 0.0004516608934237886}</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'C': 0.00011346562553074382, 'l1_ratio': 0.5767680455021627, 'tol': 0.009190092475304477}</t>
+          <t>{'C': 8.42170425691467e-05, 'tol': 0.013477100584083345}</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'C': 0.5257520516165418, 'l1_ratio': 0.33153550413649635, 'tol': 0.0071771284602594266}</t>
+          <t>{'C': 0.13568405285686655, 'tol': 0.015241586118557296}</t>
         </is>
       </c>
     </row>
@@ -586,11 +586,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'C': 0.14608922116727385, 'l1_ratio': 0.25297363807806594, 'tol': 0.07420072275478452}</t>
+          <t>{'C': 0.461175237286263, 'tol': 0.00016200080261017896}</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'C': 0.02429826238831876, 'l1_ratio': 0.38382449351137105, 'tol': 0.014234805456110751}</t>
+          <t>{'C': 0.02426427401138868, 'tol': 0.0011200186201629856}</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'C': 2.4822747293469383, 'l1_ratio': 0.6386887959912366, 'tol': 0.025029046228085137}</t>
+          <t>{'C': 0.2252973247352413, 'tol': 0.001131519737496369}</t>
         </is>
       </c>
     </row>
@@ -640,11 +640,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'C': 0.9806181814148258, 'l1_ratio': 0.012415194654397776, 'tol': 8.065897609684412e-06}</t>
+          <t>{'C': 1.4609654008480566, 'tol': 0.20807030127754092}</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'C': 5.942908729166473e-05, 'l1_ratio': 0.0002795244855756662, 'tol': 0.004330298529157691}</t>
+          <t>{'C': 6.485434740318554e-05, 'tol': 0.0019487665659510317}</t>
         </is>
       </c>
     </row>
@@ -676,11 +676,11 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'C': 2.2352199975876226, 'l1_ratio': 0.45099849545958565, 'tol': 3.600719032659746e-05}</t>
+          <t>{'C': 0.04256931649214273, 'tol': 0.15927768776915133}</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'C': 5.54781413647014e-05, 'l1_ratio': 0.6071398543834924, 'tol': 3.8290938927597765e-06}</t>
+          <t>{'C': 4.754311212615828e-05, 'tol': 0.006090856615161591}</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'C': 7.472144409522936e-05, 'l1_ratio': 0.07505140750566797, 'tol': 0.0182488015399485}</t>
+          <t>{'C': 5.800499978759892e-05, 'tol': 0.0010469661298641443}</t>
         </is>
       </c>
     </row>
